--- a/docs/homologacion.xlsx
+++ b/docs/homologacion.xlsx
@@ -1,21 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ABI\abi-webscraping\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/co028261_gmodelo_com_mx/Documents/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8EA560F-DCFF-4A9B-AC87-12A2692FA7EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="8_{AF7724BA-F89E-41A4-A437-B75C10665F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F8CE5D-F71F-4B51-A139-CA6D3370CEA4}"/>
   <bookViews>
-    <workbookView xWindow="3043" yWindow="3043" windowWidth="19562" windowHeight="10162" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jumbo" sheetId="1" r:id="rId1"/>
     <sheet name="makro" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">jumbo!$A$1:$E$47</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
   <si>
     <t>producto</t>
   </si>
@@ -275,13 +278,192 @@
   </si>
   <si>
     <t>SKU</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 3,4%
+Lanzada en el 2002, Aguila Light es una cerveza juvenil y fácil de pasar. Es una cerveza muy refrescante, con un sabor suave y menos porcentaje de alcohol, permitiendo extender los buenos momentos. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 4,7%
+Club Colombia nació en 1949 en Colombia con el nombre de Club Sesenta, en conmemoración a los sesenta años de la fundación Bavaria y fue la primera cerveza premium de la compañía. Al inicio de la década de los años sesenta, cambió de nombre por el de Club Colombia. Esta Club Colombia tiene el color dorado de las cervezas elaboradas con cebada malteada y malta caramelo. Club Colombia Dorada ha acompañado a los colombianos desde el año 1962 y ha conseguido varias medallas de oro en el reconocido Monde Selection de Bélgica. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 4,0%
+Aguila Original, cerveza lager clásica, sabrosa y refrescante que ha sido disfrutada durante más de un siglo. Refleja el verdadero espíritu de la alegría colombiana. Ha sido patrocinadora oficial de las celebraciones más importantes de Colombia, como sus carnavales, juegos locales y equipos locales y la Selección Colombia.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+Elaborada con 100% cebada malteada
+ABV: 4,5%
+Nueva Cerveza Poker Pura Malta elabaroda con 100% malta, el balance perfecto entre sabor y refrescancia.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Estados Unidos.
+ABV: 5,0%
+El "rey de las cervezas", Budweiser fue introducido por Adolphus Busch en 1876 y todavía se elabora con el mismo cuidado y alta calidad, estándares exigentes. Lo que comenzó como una cerveza original de Estados Unidos, hoy es una marca global, disfrutada en 85 países. De acuerdo con su receta original, esta gran lager americana es añejada en chips de madera por 21 días, lo que da como resultado un sabor perfectamente equilibrado y fresco. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager
+País de origen: Colombia
+ABV: 3,9%
+Costeña es lanzada en 1934, con la promesa de ser una cerveza con un único y característico sabor seco y amargo 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV:4,5%
+Redd´s Citrus, una cerveza no amarga (sin lúpulo) con sabores cítricos, siendo un producto ideal para tomarse con hielo y en la preparación de cocteles con frutas.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 4,0%
+Poker existe para unir a los amigos y hacer memorables esos buenos momentos. Independientemente de lo diferentes que seamos, Poker nos une para compartir buenos momentos simplemente siendo como realmente somos.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Honey Ale Artesanal 
+País de origen: Colombia
+ABV: 5.3%
+Cerveza rubia, suave y refrescante. Perfectamente equilibrada en su sabor, con una generosa adición de miel de abejas.
+Ideal para acompañar carnes blancas, comidas con nueces y postres dulces.
+La miel de abejas utilizada en bbc cajicá, es producida en colombia y se adiciona a la cerveza durante su elaboración.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Red Ale
+País de origen: Colombia.
+ABV: 5,0%
+Cerveza roja, afrutada y cargada de lúpulo. Con mucho cuerpo y aroma balanceado.
+Su maridaje perfecto son las carnes rojas, comida picante, jamones y quesos suaves.
+Receta tradicional de origen alemán de la ciudad de colonia. Muy refrescante y balanceada en su sabor.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 4,7%
+Proviene de la combinación de maltas tipo caramelo y variedades de malta tostada o rostizada. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 4,7%
+Proviene de la combinación de maltas tipo caramelo y malta tostada y tiene una espuma cremosa que contrasta con el color de la cerveza. Club Colombia Roja ha acompañado a los colombianos desde el año 2010. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+ABV: 4,5%
+Corona es una invitación para salir y relajarse. Corona ha estado complementando los momentos sencillos de la vida desde 1925, y ahora se disfruta en más de 180 países alrededor del mundo. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Bélgica.
+ABV: 5,0%
+Stella Artois hace parte de una rica herencia cervecera belga que data de 1366. Su legado de calidad y sofisticación se refleja en el cáliz icónico, especialmente diseñado para elevar todos los sentidos - con una forma única que realza el aroma y un tallo que mantiene la cerveza más fría por más tiempo. Stella Artois todavía se prepara usando los ingredientes naturales más finos. Hoy en día, Stella Artois es la cerveza belga número uno del mundo y la cuarta cerveza más valorada a nivel mundial.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 3,7%
+Nueva Cerveza Costeña Bacana, resfrescante y fácil de tomar.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Alemania.
+ABV: 5,0%
+Si hay algo por lo que Beck´s es reconocida, es por su calidad excepcional. Hoy se sigue elaborando igual que en 1873, siguiendo un riguroso proceso de elaboración y una receta que usa únicamente los mejores ingredientes de origen 100 % natural: lúpulo, agua, cebada y malta. Beck´s cumple con los estándares de calidad más estrictos, de conformidad con la Ley de Pureza alemana (Reinheitsgebot), y goza de amplia popularidad en casi 90 países. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+ País de origen: Colombia.
+ ABV: 0,0%
+ Aguila 0,0: Sabor refrescante y espumoso característico de Aguila ahora con 0,0 grados de alcohol. Misma sabrosura y tradición que te acompaña en toda ocasión, sin alcohol.
+ NO SE RECOMIENDA PARA MENORES DE EDAD. 0,0% CONTENIDO DE ALCOHOL APROXIMADO EN VOLUMEN.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager.
+País de origen: Colombia.
+ABV: 0,0%
+Aguila 0,0: Sabor refrescante y espumoso característico de Aguila ahora con 0,0 grados de alcohol. Misma sabrosura y tradición que te acompaña en toda ocasión, sin alcohol.
+ NO SE RECOMIENDA PARA MENORES DE EDAD. 0,0% CONTENIDO DE ALCOHOL APROXIMADO EN VOLUMEN.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Lager
+País de origen: Colombia.
+ABV: 5,0%
+Cerveza rubia, suave y refrescante. Balanceada en aromas y sabores otorgados por los lúpulos y las maltas.
+Es perfecta para maridar con comida picante, carnes blancas, pescados, comida apanada y fritos.
+Receta elaborada con pura malta e ingredientes naturales tradicionales: veriedades de Lúpulo, levadura y agua. Sin adjuntos, preservantes ni colorantes
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>Tipo de cerveza: Red Ale
+País de origen: Colombia.
+ABV: 5,0%
+Cerveza roja, afrutada y cargada de lúpulo. Con mucho cuerpo y aroma balanceado.
+Su maridaje perfecto son las carnes rojas, comida picante, jamones y quesos suaves.
+Receta tradicional de origen alemán de la ciudad de colonia. Muy refrescante y balanceada en su sabor.
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>NUEVA PRESENTACIÓN
+ La misma cerveza Corona de siempre, ahora en lata.
+Tipo de cerveza: Lager.
+ABV: 4,5%
+Corona es una invitación para salir y relajarse. Corona ha estado complementando los momentos sencillos de la vida desde 1925, y ahora se disfruta en más de 180 países alrededor del mundo. 
+EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
+Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -295,12 +477,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -323,13 +499,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -614,15 +786,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -655,11 +829,23 @@
       <c r="D2" s="1">
         <v>1413</v>
       </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>5</v>
       </c>
+      <c r="C3" s="1">
+        <v>7702004004932</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E3" t="s">
+        <v>95</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -674,16 +860,37 @@
       <c r="D4" s="1">
         <v>8815</v>
       </c>
+      <c r="E4" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>8</v>
       </c>
+      <c r="C5" s="1">
+        <v>7702004009951</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E5" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>9</v>
       </c>
+      <c r="C6" s="1">
+        <v>7702004009470</v>
+      </c>
+      <c r="D6" s="1">
+        <v>17157</v>
+      </c>
+      <c r="E6" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -698,6 +905,9 @@
       <c r="D7" s="1">
         <v>2174</v>
       </c>
+      <c r="E7" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -709,6 +919,9 @@
       <c r="D8" s="1">
         <v>2171</v>
       </c>
+      <c r="E8" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
@@ -720,16 +933,37 @@
       <c r="D9" s="1">
         <v>14703</v>
       </c>
+      <c r="E9" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>14</v>
       </c>
+      <c r="C10" s="1">
+        <v>7702004002822</v>
+      </c>
+      <c r="D10" s="1">
+        <v>7526</v>
+      </c>
+      <c r="E10" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>17</v>
       </c>
+      <c r="C11" s="1">
+        <v>7702004033642</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E11" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
@@ -741,11 +975,23 @@
       <c r="D12" s="1">
         <v>3229</v>
       </c>
+      <c r="E12" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>16</v>
       </c>
+      <c r="C13" s="1">
+        <v>7702004001955</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -760,6 +1006,9 @@
       <c r="D14" s="1">
         <v>7596</v>
       </c>
+      <c r="E14" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -771,6 +1020,9 @@
       <c r="D15" s="1">
         <v>12283</v>
       </c>
+      <c r="E15" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -782,8 +1034,11 @@
       <c r="D16" s="1">
         <v>7599</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
@@ -793,18 +1048,39 @@
       <c r="D17" s="1">
         <v>7605</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C18" s="1">
+        <v>7707358310029</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E18" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C19" s="1">
+        <v>7707358310074</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>25</v>
       </c>
@@ -814,13 +1090,25 @@
       <c r="D20" s="1">
         <v>7599</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E20" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C21" s="1">
+        <v>7707358313044</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E21" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -833,8 +1121,11 @@
       <c r="D22" s="1">
         <v>9672</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>28</v>
       </c>
@@ -844,13 +1135,25 @@
       <c r="D23" s="1">
         <v>8042</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E23" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C24" s="1">
+        <v>7702004110596</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E24" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
@@ -863,8 +1166,11 @@
       <c r="D25" s="1">
         <v>5252</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E25" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>31</v>
       </c>
@@ -874,8 +1180,11 @@
       <c r="D26" s="1">
         <v>5255</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E26" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>32</v>
       </c>
@@ -885,80 +1194,168 @@
       <c r="D27" s="1">
         <v>5257</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E27" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C28" s="1">
+        <v>7702004003621</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C29" s="1">
+        <v>7702004003508</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E29" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C30" s="1">
+        <v>7702004003775</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C31" s="1">
+        <v>7702004006707</v>
+      </c>
+      <c r="D31" s="1">
+        <v>20250</v>
+      </c>
+      <c r="E31" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
       <c r="B32" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="3">
+      <c r="C32" s="1">
         <v>7702004111050</v>
       </c>
       <c r="D32" s="1">
         <v>17155</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>41</v>
       </c>
-      <c r="C33" s="2">
+      <c r="C33" s="1">
         <v>7702004111548</v>
       </c>
       <c r="D33" s="1">
         <v>20050</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E33" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B34" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C34" s="1">
+        <v>7702004110732</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7614</v>
+      </c>
+      <c r="E34" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B35" t="s">
         <v>43</v>
       </c>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C35" s="1">
+        <v>7702004110718</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E35" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B36" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C36" s="1">
+        <v>7702004111043</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E36" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B37" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C37" s="1">
+        <v>7702004110718</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E37" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B38" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C38" s="1">
+        <v>7702004111531</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E38" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>46</v>
       </c>
@@ -971,8 +1368,11 @@
       <c r="D39" s="1">
         <v>20463</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E39" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B40" t="s">
         <v>48</v>
       </c>
@@ -982,8 +1382,11 @@
       <c r="D40" s="1">
         <v>14647</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E40" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B41" t="s">
         <v>54</v>
       </c>
@@ -993,18 +1396,39 @@
       <c r="D41" s="1">
         <v>15366</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E41" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B42" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C42" s="1">
+        <v>7702004010575</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E42" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B43" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C43" s="1">
+        <v>7702004010575</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E43" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>49</v>
       </c>
@@ -1017,13 +1441,25 @@
       <c r="D44" s="1">
         <v>1428</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E44" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C45" s="1">
+        <v>7702004007360</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E45" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>51</v>
       </c>
@@ -1036,13 +1472,26 @@
       <c r="D46" s="1">
         <v>9508</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E46" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>57</v>
       </c>
+      <c r="C47" s="1">
+        <v>7702004110701</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="E47" t="s">
+        <v>93</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1052,14 +1501,14 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:D3"/>
+      <selection sqref="A1:E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.75" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1092,6 +1541,9 @@
       <c r="D2" s="1">
         <v>1413</v>
       </c>
+      <c r="E2" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1106,6 +1558,9 @@
       <c r="D3" s="1">
         <v>3228</v>
       </c>
+      <c r="E3" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1114,6 +1569,15 @@
       <c r="B4" t="s">
         <v>62</v>
       </c>
+      <c r="C4" s="1">
+        <v>7702004002532</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5630</v>
+      </c>
+      <c r="E4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -1125,6 +1589,9 @@
       <c r="D5" s="1">
         <v>2171</v>
       </c>
+      <c r="E5" t="s">
+        <v>81</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -1136,6 +1603,9 @@
       <c r="D6" s="1">
         <v>2174</v>
       </c>
+      <c r="E6" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
@@ -1144,6 +1614,15 @@
       <c r="B7" t="s">
         <v>61</v>
       </c>
+      <c r="C7" s="1">
+        <v>7702004007674</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5150</v>
+      </c>
+      <c r="E7" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -1155,6 +1634,9 @@
       <c r="D8" s="1">
         <v>1428</v>
       </c>
+      <c r="E8" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
@@ -1169,6 +1651,9 @@
       <c r="D9" s="1">
         <v>12283</v>
       </c>
+      <c r="E9" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
@@ -1180,6 +1665,9 @@
       <c r="D10" s="1">
         <v>7599</v>
       </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
@@ -1191,6 +1679,9 @@
       <c r="D11" s="1">
         <v>7605</v>
       </c>
+      <c r="E11" t="s">
+        <v>90</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -1199,6 +1690,15 @@
       <c r="B12" t="s">
         <v>68</v>
       </c>
+      <c r="C12" s="1">
+        <v>7702004112224</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7991</v>
+      </c>
+      <c r="E12" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
@@ -1210,6 +1710,9 @@
       <c r="D13" s="1">
         <v>7993</v>
       </c>
+      <c r="E13" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
@@ -1224,6 +1727,9 @@
       <c r="D14" s="1">
         <v>5257</v>
       </c>
+      <c r="E14" t="s">
+        <v>91</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
@@ -1235,6 +1741,9 @@
       <c r="D15" s="1">
         <v>5252</v>
       </c>
+      <c r="E15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
@@ -1246,8 +1755,11 @@
       <c r="D16" s="1">
         <v>5255</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E16" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>39</v>
       </c>
@@ -1260,8 +1772,11 @@
       <c r="D17" s="1">
         <v>20050</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E17" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>46</v>
       </c>
@@ -1274,8 +1789,11 @@
       <c r="D18" s="1">
         <v>15366</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>75</v>
       </c>
@@ -1285,8 +1803,11 @@
       <c r="D19" s="1">
         <v>20463</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>51</v>
       </c>
@@ -1298,6 +1819,9 @@
       </c>
       <c r="D20" s="1">
         <v>9508</v>
+      </c>
+      <c r="E20" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/docs/homologacion.xlsx
+++ b/docs/homologacion.xlsx
@@ -1,23 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://anheuserbuschinbev-my.sharepoint.com/personal/co028261_gmodelo_com_mx/Documents/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ABI\abi-webscraping\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="8_{AF7724BA-F89E-41A4-A437-B75C10665F02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{E4F8CE5D-F71F-4B51-A139-CA6D3370CEA4}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DC314-43F0-4B90-8D37-8E2FA3A2C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20370" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jumbo" sheetId="1" r:id="rId1"/>
     <sheet name="makro" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">jumbo!$A$1:$E$47</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">jumbo!$A$1:$F$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="112">
   <si>
     <t>producto</t>
   </si>
@@ -163,12 +163,6 @@
     <t xml:space="preserve">Cerveza Corona lata x6unds x239ml c-u  </t>
   </si>
   <si>
-    <t xml:space="preserve">Cerveza Corona 6pack botella 330ml  </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cerveza Corona sixpack x355ml  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerveza Corona botella x355ml  </t>
   </si>
   <si>
@@ -181,9 +175,6 @@
     <t>STELLA ARTOIS</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerveza Stella Artois Botella Sixpack x300ml c-u  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerveza Stella Artois botella x6und x330ml c-u  </t>
   </si>
   <si>
@@ -202,15 +193,9 @@
     <t>Cerveza Poker lata x330ml</t>
   </si>
   <si>
-    <t xml:space="preserve">Cerveza Stella Artois Sixpack Lata x269ml c-u  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerveza Stella Artois lata x269ml  </t>
   </si>
   <si>
-    <t xml:space="preserve">Cerveza Stella Artois Lata x269ml  </t>
-  </si>
-  <si>
     <t xml:space="preserve">Cerveza Coronita botella x210ml  </t>
   </si>
   <si>
@@ -278,9 +263,6 @@
   </si>
   <si>
     <t>SKU</t>
-  </si>
-  <si>
-    <t>N/A</t>
   </si>
   <si>
     <t>Tipo de cerveza: Lager.
@@ -457,6 +439,54 @@
 Corona es una invitación para salir y relajarse. Corona ha estado complementando los momentos sencillos de la vida desde 1925, y ahora se disfruta en más de 180 países alrededor del mundo. 
 EL EXCESO DE ALCOHOL ES PERJUDICIAL PARA LA SALUD, PROHÍBESE EL EXPENDIO DE BEBIDAS EMBRIAGANTES A MENORES DE EDAD.
 Prohíbase el expendio de bebidas embriagantes a menores de edad. Ley 124 1994. El exceso de alcohol es perjudicial para la salud. Ley 30 de 1986.</t>
+  </si>
+  <si>
+    <t>variante</t>
+  </si>
+  <si>
+    <t>light</t>
+  </si>
+  <si>
+    <t>0,0</t>
+  </si>
+  <si>
+    <t>bacana</t>
+  </si>
+  <si>
+    <t>lager</t>
+  </si>
+  <si>
+    <t>cajicá</t>
+  </si>
+  <si>
+    <t>monserrate</t>
+  </si>
+  <si>
+    <t>dorada</t>
+  </si>
+  <si>
+    <t>roja</t>
+  </si>
+  <si>
+    <t>negra</t>
+  </si>
+  <si>
+    <t>oktoberfest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerveza Corona x6und botella 330ml  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerveza Corona x6und x355ml  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerveza Stella Artois Botella x6und x300ml c-u  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cerveza Stella Artois x6und Lata x269ml c-u  </t>
+  </si>
+  <si>
+    <t>lata</t>
   </si>
 </sst>
 </file>
@@ -479,12 +509,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -499,9 +535,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -784,715 +828,864 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="46.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="255.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.875" customWidth="1"/>
+    <col min="3" max="3" width="46.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.5" customWidth="1"/>
+    <col min="6" max="6" width="255.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>78</v>
-      </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="E1" t="s">
+        <v>74</v>
+      </c>
+      <c r="F1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
       <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D2" s="1">
+        <v>7702004004932</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="F2" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D3" s="1">
         <v>7702004005359</v>
       </c>
-      <c r="D2" s="1">
+      <c r="E3" s="1">
         <v>1413</v>
       </c>
-      <c r="E2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C3" s="1">
-        <v>7702004004932</v>
-      </c>
-      <c r="D3" s="1" t="s">
+      <c r="F3" t="s">
         <v>80</v>
       </c>
-      <c r="E3" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="1">
+        <v>7702004009951</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D5" s="1">
         <v>7702004009395</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E5" s="1">
         <v>8815</v>
       </c>
-      <c r="E4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7702004009951</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E5" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
       <c r="B6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="1">
+      <c r="D6" s="1">
         <v>7702004009470</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>17157</v>
       </c>
-      <c r="E6" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F6" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>10</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="1">
+        <v>7702004001917</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3229</v>
+      </c>
+      <c r="F7" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>10</v>
+      </c>
+      <c r="B8" t="s">
+        <v>97</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" s="1">
+        <v>7702004001955</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" t="s">
+        <v>17</v>
+      </c>
+      <c r="D9" s="1">
+        <v>7702004033642</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10" t="s">
         <v>11</v>
       </c>
-      <c r="C7" s="1">
+      <c r="D10" s="1">
         <v>7702004001924</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E10" s="1">
         <v>2174</v>
       </c>
-      <c r="E7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="F10" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>97</v>
+      </c>
+      <c r="C11" t="s">
         <v>12</v>
       </c>
-      <c r="C8" s="1">
+      <c r="D11" s="1">
         <v>7702004001962</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E11" s="1">
         <v>2171</v>
       </c>
-      <c r="E8" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="F11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>97</v>
+      </c>
+      <c r="C12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="1">
+        <v>7702004002822</v>
+      </c>
+      <c r="E12" s="1">
+        <v>7526</v>
+      </c>
+      <c r="F12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C13" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="1">
+      <c r="D13" s="1">
         <v>7702004033635</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E13" s="1">
         <v>14703</v>
       </c>
-      <c r="E9" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1">
-        <v>7702004002822</v>
-      </c>
-      <c r="D10" s="1">
-        <v>7526</v>
-      </c>
-      <c r="E10" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
-        <v>17</v>
-      </c>
-      <c r="C11" s="1">
-        <v>7702004033642</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E11" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-      <c r="C12" s="1">
-        <v>7702004001917</v>
-      </c>
-      <c r="D12" s="1">
-        <v>3229</v>
-      </c>
-      <c r="E12" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>16</v>
-      </c>
-      <c r="C13" s="1">
-        <v>7702004001955</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="1">
+        <v>7707358310029</v>
+      </c>
+      <c r="E14" s="1">
+        <v>0</v>
+      </c>
+      <c r="F14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B15" t="s">
+        <v>100</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="1">
+        <v>7707358310074</v>
+      </c>
+      <c r="E15" s="1">
+        <v>0</v>
+      </c>
+      <c r="F15" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>18</v>
+      </c>
+      <c r="B16" t="s">
+        <v>101</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="1">
+        <v>7707358310050</v>
+      </c>
+      <c r="E16" s="1">
+        <v>7599</v>
+      </c>
+      <c r="F16" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="1">
+        <v>7707358313044</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0</v>
+      </c>
+      <c r="F17" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>100</v>
+      </c>
+      <c r="C18" t="s">
         <v>19</v>
       </c>
-      <c r="C14" s="1">
+      <c r="D18" s="1">
         <v>7707358310753</v>
       </c>
-      <c r="D14" s="1">
+      <c r="E18" s="1">
         <v>7596</v>
       </c>
-      <c r="E14" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
+      <c r="F18" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" t="s">
+        <v>22</v>
+      </c>
+      <c r="D19" s="1">
+        <v>7707358310449</v>
+      </c>
+      <c r="E19" s="1">
+        <v>7605</v>
+      </c>
+      <c r="F19" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>101</v>
+      </c>
+      <c r="C20" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="1">
+      <c r="D20" s="1">
         <v>7707358313051</v>
       </c>
-      <c r="D15" s="1">
+      <c r="E20" s="1">
         <v>12283</v>
       </c>
-      <c r="E15" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C21" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="1">
+      <c r="D21" s="1">
         <v>7707358310470</v>
       </c>
-      <c r="D16" s="1">
+      <c r="E21" s="1">
         <v>7599</v>
       </c>
-      <c r="E16" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-      <c r="C17" s="1">
-        <v>7707358310449</v>
-      </c>
-      <c r="D17" s="1">
-        <v>7605</v>
-      </c>
-      <c r="E17" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>23</v>
-      </c>
-      <c r="C18" s="1">
-        <v>7707358310029</v>
-      </c>
-      <c r="D18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E18" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" s="1">
-        <v>7707358310074</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E19" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" s="1">
-        <v>7707358310050</v>
-      </c>
-      <c r="D20" s="1">
-        <v>7599</v>
-      </c>
-      <c r="E20" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B21" t="s">
-        <v>26</v>
-      </c>
-      <c r="C21" s="1">
-        <v>7707358313044</v>
-      </c>
-      <c r="D21" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E21" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F21" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="1">
+        <v>7702004110596</v>
+      </c>
+      <c r="E22" s="1">
+        <v>0</v>
+      </c>
+      <c r="F22" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
         <v>27</v>
       </c>
-      <c r="C22" s="1">
+      <c r="D23" s="1">
         <v>7702004110619</v>
       </c>
-      <c r="D22" s="1">
+      <c r="E23" s="1">
         <v>9672</v>
       </c>
-      <c r="E22" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="F23" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
         <v>28</v>
       </c>
-      <c r="C23" s="1">
+      <c r="D24" s="1">
         <v>7702004110572</v>
       </c>
-      <c r="D23" s="1">
+      <c r="E24" s="1">
         <v>8042</v>
       </c>
-      <c r="E23" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B24" t="s">
-        <v>29</v>
-      </c>
-      <c r="C24" s="1">
-        <v>7702004110596</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E24" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F24" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>37</v>
       </c>
       <c r="B25" t="s">
+        <v>104</v>
+      </c>
+      <c r="C25" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="1">
+        <v>7702004003621</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0</v>
+      </c>
+      <c r="F25" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="1">
+        <v>7702004003508</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0</v>
+      </c>
+      <c r="F26" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>37</v>
+      </c>
+      <c r="B27" t="s">
+        <v>105</v>
+      </c>
+      <c r="C27" t="s">
+        <v>35</v>
+      </c>
+      <c r="D27" s="1">
+        <v>7702004003775</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0</v>
+      </c>
+      <c r="F27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" t="s">
+        <v>103</v>
+      </c>
+      <c r="C28" t="s">
         <v>30</v>
       </c>
-      <c r="C25" s="1">
+      <c r="D28" s="1">
         <v>7702004003539</v>
       </c>
-      <c r="D25" s="1">
+      <c r="E28" s="1">
         <v>5252</v>
       </c>
-      <c r="E25" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="F28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>37</v>
+      </c>
+      <c r="B29" t="s">
+        <v>104</v>
+      </c>
+      <c r="C29" t="s">
         <v>31</v>
       </c>
-      <c r="C26" s="1">
+      <c r="D29" s="1">
         <v>7702004003638</v>
       </c>
-      <c r="D26" s="1">
+      <c r="E29" s="1">
         <v>5255</v>
       </c>
-      <c r="E26" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B27" t="s">
+      <c r="F29" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>37</v>
+      </c>
+      <c r="B30" t="s">
+        <v>105</v>
+      </c>
+      <c r="C30" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="1">
+      <c r="D30" s="1">
         <v>7702004003782</v>
       </c>
-      <c r="D27" s="1">
+      <c r="E30" s="1">
         <v>5257</v>
       </c>
-      <c r="E27" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>33</v>
-      </c>
-      <c r="C28" s="1">
-        <v>7702004003621</v>
-      </c>
-      <c r="D28" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="1">
-        <v>7702004003508</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E29" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="1">
-        <v>7702004003775</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E30" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F30" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>37</v>
+      </c>
       <c r="B31" t="s">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
         <v>36</v>
       </c>
-      <c r="C31" s="1">
+      <c r="D31" s="1">
         <v>7702004006707</v>
       </c>
-      <c r="D31" s="1">
+      <c r="E31" s="1">
         <v>20250</v>
       </c>
-      <c r="E31" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F31" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>39</v>
       </c>
-      <c r="B32" t="s">
+      <c r="C32" t="s">
+        <v>41</v>
+      </c>
+      <c r="D32" s="1">
+        <v>7702004110718</v>
+      </c>
+      <c r="E32" s="1">
+        <v>0</v>
+      </c>
+      <c r="F32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>39</v>
+      </c>
+      <c r="C33" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="1">
+        <v>7702004111531</v>
+      </c>
+      <c r="E33" s="1">
+        <v>0</v>
+      </c>
+      <c r="F33" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>39</v>
+      </c>
+      <c r="C34" t="s">
+        <v>42</v>
+      </c>
+      <c r="D34" s="1">
+        <v>7702004111043</v>
+      </c>
+      <c r="E34" s="1">
+        <v>0</v>
+      </c>
+      <c r="F34" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>39</v>
+      </c>
+      <c r="C35" t="s">
         <v>40</v>
       </c>
-      <c r="C32" s="1">
+      <c r="D35" s="1">
         <v>7702004111050</v>
       </c>
-      <c r="D32" s="1">
+      <c r="E35" s="1">
         <v>17155</v>
       </c>
-      <c r="E32" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B33" t="s">
-        <v>41</v>
-      </c>
-      <c r="C33" s="1">
+      <c r="F35" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" t="s">
+        <v>108</v>
+      </c>
+      <c r="D36" s="1">
+        <v>7702004110732</v>
+      </c>
+      <c r="E36" s="1">
+        <v>7614</v>
+      </c>
+      <c r="F36" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>39</v>
+      </c>
+      <c r="C37" t="s">
+        <v>107</v>
+      </c>
+      <c r="D37" s="1">
         <v>7702004111548</v>
       </c>
-      <c r="D33" s="1">
+      <c r="E37" s="1">
         <v>20050</v>
       </c>
-      <c r="E33" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>42</v>
-      </c>
-      <c r="C34" s="1">
-        <v>7702004110732</v>
-      </c>
-      <c r="D34" s="1">
-        <v>7614</v>
-      </c>
-      <c r="E34" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B35" t="s">
-        <v>43</v>
-      </c>
-      <c r="C35" s="1">
-        <v>7702004110718</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E35" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B36" t="s">
+      <c r="F37" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="1">
-        <v>7702004111043</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E36" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B37" t="s">
-        <v>43</v>
-      </c>
-      <c r="C37" s="1">
-        <v>7702004110718</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E37" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B38" t="s">
+      <c r="C38" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="D38" s="5">
+        <v>7702004010575</v>
+      </c>
+      <c r="E38" s="5">
+        <v>0</v>
+      </c>
+      <c r="F38" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="D39" s="3">
+        <v>7702004010551</v>
+      </c>
+      <c r="E39" s="3">
+        <v>20463</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="1">
-        <v>7702004111531</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
+      <c r="D40" s="3">
+        <v>7501064199158</v>
+      </c>
+      <c r="E40" s="3">
+        <v>14647</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>44</v>
+      </c>
+      <c r="C41" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="1">
+        <v>7702004010261</v>
+      </c>
+      <c r="E41" s="1">
+        <v>15366</v>
+      </c>
+      <c r="F41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
         <v>46</v>
       </c>
-      <c r="B39" t="s">
+      <c r="C42" t="s">
+        <v>50</v>
+      </c>
+      <c r="D42" s="1">
+        <v>7702004007360</v>
+      </c>
+      <c r="E42" s="1">
+        <v>0</v>
+      </c>
+      <c r="F42" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>46</v>
+      </c>
+      <c r="C43" t="s">
         <v>47</v>
       </c>
-      <c r="C39" s="1">
-        <v>7702004010551</v>
-      </c>
-      <c r="D39" s="1">
-        <v>20463</v>
-      </c>
-      <c r="E39" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
+      <c r="D43" s="1">
+        <v>7702004007377</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1428</v>
+      </c>
+      <c r="F43" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
         <v>48</v>
       </c>
-      <c r="C40" s="1">
-        <v>7501064199158</v>
-      </c>
-      <c r="D40" s="1">
-        <v>14647</v>
-      </c>
-      <c r="E40" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>54</v>
-      </c>
-      <c r="C41" s="1">
-        <v>7702004010261</v>
-      </c>
-      <c r="D41" s="1">
-        <v>15366</v>
-      </c>
-      <c r="E41" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>55</v>
-      </c>
-      <c r="C42" s="1">
-        <v>7702004010575</v>
-      </c>
-      <c r="D42" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E42" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="1">
-        <v>7702004010575</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E43" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
+      <c r="C44" t="s">
+        <v>52</v>
+      </c>
+      <c r="D44" s="1">
+        <v>7702004110701</v>
+      </c>
+      <c r="E44" s="1">
+        <v>0</v>
+      </c>
+      <c r="F44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>48</v>
+      </c>
+      <c r="C45" t="s">
         <v>49</v>
       </c>
-      <c r="B44" t="s">
-        <v>50</v>
-      </c>
-      <c r="C44" s="1">
-        <v>7702004007377</v>
-      </c>
-      <c r="D44" s="1">
-        <v>1428</v>
-      </c>
-      <c r="E44" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>53</v>
-      </c>
-      <c r="C45" s="1">
-        <v>7702004007360</v>
-      </c>
-      <c r="D45" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E45" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>51</v>
-      </c>
-      <c r="B46" t="s">
-        <v>52</v>
-      </c>
-      <c r="C46" s="1">
+      <c r="D45" s="1">
         <v>7702004110725</v>
       </c>
-      <c r="D46" s="1">
+      <c r="E45" s="1">
         <v>9508</v>
       </c>
-      <c r="E46" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>57</v>
-      </c>
-      <c r="C47" s="1">
-        <v>7702004110701</v>
-      </c>
-      <c r="D47" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="E47" t="s">
-        <v>93</v>
+      <c r="F45" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:E47" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1501,14 +1694,14 @@
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E20"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="43.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="43.75" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -1519,10 +1712,10 @@
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
         <v>1</v>
@@ -1533,7 +1726,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C2" s="1">
         <v>7702004005359</v>
@@ -1542,15 +1735,15 @@
         <v>1413</v>
       </c>
       <c r="E2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B3" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C3" s="1">
         <v>7702004011190</v>
@@ -1559,7 +1752,7 @@
         <v>3228</v>
       </c>
       <c r="E3" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1567,7 +1760,7 @@
         <v>10</v>
       </c>
       <c r="B4" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C4" s="1">
         <v>7702004002532</v>
@@ -1576,12 +1769,12 @@
         <v>5630</v>
       </c>
       <c r="E4" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C5" s="1">
         <v>7702004001962</v>
@@ -1590,12 +1783,12 @@
         <v>2171</v>
       </c>
       <c r="E5" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C6" s="1">
         <v>7702004001924</v>
@@ -1604,15 +1797,15 @@
         <v>2174</v>
       </c>
       <c r="E6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C7" s="1">
         <v>7702004007674</v>
@@ -1621,12 +1814,12 @@
         <v>5150</v>
       </c>
       <c r="E7" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C8" s="1">
         <v>7702004007377</v>
@@ -1635,7 +1828,7 @@
         <v>1428</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -1643,7 +1836,7 @@
         <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>66</v>
+        <v>61</v>
       </c>
       <c r="C9" s="1">
         <v>7707358313051</v>
@@ -1652,12 +1845,12 @@
         <v>12283</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="C10" s="1">
         <v>7707358310470</v>
@@ -1666,12 +1859,12 @@
         <v>7599</v>
       </c>
       <c r="E10" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C11" s="1">
         <v>7707358310449</v>
@@ -1680,7 +1873,7 @@
         <v>7605</v>
       </c>
       <c r="E11" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1688,7 +1881,7 @@
         <v>38</v>
       </c>
       <c r="B12" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C12" s="1">
         <v>7702004112224</v>
@@ -1697,12 +1890,12 @@
         <v>7991</v>
       </c>
       <c r="E12" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C13" s="1">
         <v>7702004110589</v>
@@ -1711,7 +1904,7 @@
         <v>7993</v>
       </c>
       <c r="E13" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1719,7 +1912,7 @@
         <v>37</v>
       </c>
       <c r="B14" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C14" s="1">
         <v>7702004003782</v>
@@ -1728,12 +1921,12 @@
         <v>5257</v>
       </c>
       <c r="E14" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C15" s="1">
         <v>7702004003539</v>
@@ -1742,12 +1935,12 @@
         <v>5252</v>
       </c>
       <c r="E15" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C16" s="1">
         <v>7702004003638</v>
@@ -1756,7 +1949,7 @@
         <v>5255</v>
       </c>
       <c r="E16" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1764,7 +1957,7 @@
         <v>39</v>
       </c>
       <c r="B17" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C17" s="1">
         <v>7702004111548</v>
@@ -1773,15 +1966,15 @@
         <v>20050</v>
       </c>
       <c r="E17" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B18" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C18" s="1">
         <v>7702004010261</v>
@@ -1790,12 +1983,12 @@
         <v>15366</v>
       </c>
       <c r="E18" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C19" s="1">
         <v>7702004010551</v>
@@ -1804,15 +1997,15 @@
         <v>20463</v>
       </c>
       <c r="E19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B20" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C20" s="1">
         <v>7702004110725</v>
@@ -1821,7 +2014,7 @@
         <v>9508</v>
       </c>
       <c r="E20" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
     </row>
   </sheetData>

--- a/docs/homologacion.xlsx
+++ b/docs/homologacion.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\ABI\abi-webscraping\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB8DC314-43F0-4B90-8D37-8E2FA3A2C467}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25BD4B7C-6FE5-4805-AA35-48F9A24A4F42}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="25974" yWindow="-109" windowWidth="26301" windowHeight="14889" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-109" yWindow="-109" windowWidth="26301" windowHeight="14169" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="jumbo" sheetId="1" r:id="rId1"/>
@@ -832,7 +832,7 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A10" sqref="A10:XFD13"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14.3" x14ac:dyDescent="0.25"/>
@@ -1683,7 +1683,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:F45" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
